--- a/src/main/resources/template/excel/export/stockTakingUnknownDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingUnknownDetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,11 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>${obj.stocktakingNum}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>实际盘点数量</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -88,11 +84,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(B3:B3:B3+0)]</t>
+    <t>${obj.barCode}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.barCode}</t>
+    <t>$[SUMPRODUCT(B3:B3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,13 +150,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -539,7 +528,7 @@
   <dimension ref="A1:EB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -550,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:132" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="4"/>
@@ -686,10 +675,10 @@
     </row>
     <row r="2" spans="1:132" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -818,15 +807,15 @@
     </row>
     <row r="3" spans="1:132" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
+      <c r="B3" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:132" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>5</v>

--- a/src/main/resources/template/excel/export/stockTakingUnknownDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingUnknownDetail.xlsx
@@ -39,7 +39,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="B4")</t>
+          <t>jx:area(lastCell="B3")</t>
         </r>
       </text>
     </comment>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>盘点详细</t>
     <rPh sb="0" eb="1">
@@ -98,17 +98,6 @@
   </si>
   <si>
     <t>${obj.stocktakingNum}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计:</t>
-    <rPh sb="0" eb="1">
-      <t>he'j</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(B3:B3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -236,7 +225,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -558,10 +546,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -579,14 +567,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/src/main/resources/template/excel/export/stockTakingUnknownDetail.xlsx
+++ b/src/main/resources/template/excel/export/stockTakingUnknownDetail.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>盘点详细</t>
     <rPh sb="0" eb="1">
@@ -98,6 +98,17 @@
   </si>
   <si>
     <t>${obj.stocktakingNum}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计:</t>
+    <rPh sb="0" eb="1">
+      <t>he'j</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(B3:B3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -567,6 +578,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
